--- a/Hiron_Middle_Para_Input.xlsx
+++ b/Hiron_Middle_Para_Input.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" updateLinks="never"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CFC1A4-9D5E-4065-A793-61AF4EEA51D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Cross_Section_Data" sheetId="2" r:id="rId1"/>
@@ -22,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Raw_Cross_Section_Data!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -236,9 +235,6 @@
     <t>Design_Month</t>
   </si>
   <si>
-    <t>December,2021</t>
-  </si>
-  <si>
     <t>Sl</t>
   </si>
   <si>
@@ -338,12 +334,15 @@
   </si>
   <si>
     <t>CRISP-WRM</t>
+  </si>
+  <si>
+    <t>December,2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -635,6 +634,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -645,33 +647,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="22">
-    <cellStyle name="Comma 2" xfId="6" xr:uid="{CFC2FF80-5EBB-4727-B879-5747678E9F97}"/>
-    <cellStyle name="Comma 3" xfId="16" xr:uid="{8C83A831-4660-4279-A0C5-0F05D6585F42}"/>
+    <cellStyle name="Comma 2" xfId="6"/>
+    <cellStyle name="Comma 3" xfId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 2 2" xfId="7" xr:uid="{4986B187-40BC-4F35-9780-4DB4A13500EC}"/>
-    <cellStyle name="Normal 2 2 2" xfId="10" xr:uid="{D9778E4A-0446-4FA6-AF5C-0970127AC602}"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="11" xr:uid="{9E8FA5EF-5EB6-4807-974F-58D95841AD3F}"/>
-    <cellStyle name="Normal 2 2 2 3" xfId="17" xr:uid="{C574680D-3A2A-4603-B8A1-5611E1CCD6EE}"/>
-    <cellStyle name="Normal 2 2 3" xfId="18" xr:uid="{F90A7BC0-1754-47BE-933E-286ACB036059}"/>
-    <cellStyle name="Normal 2 3" xfId="9" xr:uid="{5367865F-9C27-438C-9D64-823080AE31FB}"/>
-    <cellStyle name="Normal 2 4" xfId="13" xr:uid="{DFB9C1A3-C8FF-49DC-BF73-1E4AB2257741}"/>
-    <cellStyle name="Normal 2 4 2" xfId="14" xr:uid="{8F3D4F1C-D232-4772-80F6-BFB3C30D8005}"/>
-    <cellStyle name="Normal 2 5" xfId="19" xr:uid="{B7D7E98F-93DB-43C1-9E63-8FB26FFDF878}"/>
-    <cellStyle name="Normal 2 5 2" xfId="15" xr:uid="{B55516C0-BD57-4A37-ADA9-991983B433B1}"/>
-    <cellStyle name="Normal 2 6" xfId="5" xr:uid="{FE8CAD36-6868-4C8A-B5E9-4ECAE5F932D0}"/>
-    <cellStyle name="Normal 3" xfId="8" xr:uid="{BAC1F9C6-B772-4638-9DA7-FA07C34716D2}"/>
-    <cellStyle name="Normal 3 2" xfId="12" xr:uid="{F8299B2E-9C64-4100-8A3C-0B7435ADF807}"/>
-    <cellStyle name="Normal 4" xfId="20" xr:uid="{7EF6D842-7B8D-4A8D-8D39-EABD9C3D0647}"/>
-    <cellStyle name="Normal 4 2" xfId="21" xr:uid="{8D53B489-F466-40D0-981D-4CE68907EAA1}"/>
-    <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 7" xfId="3" xr:uid="{E47552F7-75FF-460C-899A-4F00620CF1BB}"/>
-    <cellStyle name="Normal 7 2" xfId="4" xr:uid="{239B5246-B9B2-4CB4-BC57-8016F272EC4B}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="7"/>
+    <cellStyle name="Normal 2 2 2" xfId="10"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="11"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="17"/>
+    <cellStyle name="Normal 2 2 3" xfId="18"/>
+    <cellStyle name="Normal 2 3" xfId="9"/>
+    <cellStyle name="Normal 2 4" xfId="13"/>
+    <cellStyle name="Normal 2 4 2" xfId="14"/>
+    <cellStyle name="Normal 2 5" xfId="19"/>
+    <cellStyle name="Normal 2 5 2" xfId="15"/>
+    <cellStyle name="Normal 2 6" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="8"/>
+    <cellStyle name="Normal 3 2" xfId="12"/>
+    <cellStyle name="Normal 4" xfId="20"/>
+    <cellStyle name="Normal 4 2" xfId="21"/>
+    <cellStyle name="Normal 6" xfId="2"/>
+    <cellStyle name="Normal 7" xfId="3"/>
+    <cellStyle name="Normal 7 2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -687,7 +686,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -845,7 +844,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B429-476A-B4BE-1DE6C3F427C7}"/>
             </c:ext>
@@ -962,7 +961,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B429-476A-B4BE-1DE6C3F427C7}"/>
             </c:ext>
@@ -976,11 +975,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205335552"/>
-        <c:axId val="205345536"/>
+        <c:axId val="259277568"/>
+        <c:axId val="259279104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205335552"/>
+        <c:axId val="259277568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1026,12 +1025,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205345536"/>
+        <c:crossAx val="259279104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205345536"/>
+        <c:axId val="259279104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,7 +1075,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205335552"/>
+        <c:crossAx val="259277568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1131,7 +1130,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1265,7 +1264,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1FDB-4550-9312-F568FCDB2425}"/>
             </c:ext>
@@ -1388,7 +1387,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1FDB-4550-9312-F568FCDB2425}"/>
             </c:ext>
@@ -1402,11 +1401,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205366784"/>
-        <c:axId val="205368320"/>
+        <c:axId val="259304448"/>
+        <c:axId val="259310336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205366784"/>
+        <c:axId val="259304448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1452,12 +1451,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205368320"/>
+        <c:crossAx val="259310336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205368320"/>
+        <c:axId val="259310336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1502,7 +1501,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205366784"/>
+        <c:crossAx val="259304448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1557,7 +1556,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1715,7 +1714,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C4A3-4A44-8628-DDA55315A912}"/>
             </c:ext>
@@ -1808,7 +1807,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C4A3-4A44-8628-DDA55315A912}"/>
             </c:ext>
@@ -1822,11 +1821,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206057472"/>
-        <c:axId val="206059008"/>
+        <c:axId val="259323392"/>
+        <c:axId val="259324928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206057472"/>
+        <c:axId val="259323392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1872,12 +1871,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206059008"/>
+        <c:crossAx val="259324928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206059008"/>
+        <c:axId val="259324928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1922,7 +1921,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206057472"/>
+        <c:crossAx val="259323392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1996,7 +1995,7 @@
         <xdr:cNvPr id="5" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1600C0FA-5DBA-4EED-BE7B-D60DA8C12FFF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1600C0FA-5DBA-4EED-BE7B-D60DA8C12FFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2034,7 +2033,7 @@
         <xdr:cNvPr id="6" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CA06FD3-CFEF-401C-9427-5DE07862F85E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CA06FD3-CFEF-401C-9427-5DE07862F85E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2072,7 +2071,7 @@
         <xdr:cNvPr id="7" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD9D45F-8E0C-4713-BCF4-A9CFE3D1F9D0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD9D45F-8E0C-4713-BCF4-A9CFE3D1F9D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2096,11 +2095,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Hiron Middle para khal (2)"/>
       <sheetName val="Hiron Middle para khal"/>
@@ -2949,361 +2945,361 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="E34" sqref="E33:E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="10" customWidth="1"/>
-    <col min="5" max="7" width="10.21875" style="10" customWidth="1"/>
-    <col min="8" max="10" width="8.77734375" style="10"/>
-    <col min="11" max="11" width="10.44140625" style="10" customWidth="1"/>
-    <col min="12" max="249" width="8.77734375" style="10"/>
-    <col min="250" max="254" width="8.21875" style="10" customWidth="1"/>
-    <col min="255" max="255" width="2.77734375" style="10" customWidth="1"/>
-    <col min="256" max="260" width="7.44140625" style="10" customWidth="1"/>
-    <col min="261" max="263" width="10.21875" style="10" customWidth="1"/>
-    <col min="264" max="505" width="8.77734375" style="10"/>
-    <col min="506" max="510" width="8.21875" style="10" customWidth="1"/>
-    <col min="511" max="511" width="2.77734375" style="10" customWidth="1"/>
-    <col min="512" max="516" width="7.44140625" style="10" customWidth="1"/>
-    <col min="517" max="519" width="10.21875" style="10" customWidth="1"/>
-    <col min="520" max="761" width="8.77734375" style="10"/>
-    <col min="762" max="766" width="8.21875" style="10" customWidth="1"/>
-    <col min="767" max="767" width="2.77734375" style="10" customWidth="1"/>
-    <col min="768" max="772" width="7.44140625" style="10" customWidth="1"/>
-    <col min="773" max="775" width="10.21875" style="10" customWidth="1"/>
-    <col min="776" max="1017" width="8.77734375" style="10"/>
-    <col min="1018" max="1022" width="8.21875" style="10" customWidth="1"/>
-    <col min="1023" max="1023" width="2.77734375" style="10" customWidth="1"/>
-    <col min="1024" max="1028" width="7.44140625" style="10" customWidth="1"/>
-    <col min="1029" max="1031" width="10.21875" style="10" customWidth="1"/>
-    <col min="1032" max="1273" width="8.77734375" style="10"/>
-    <col min="1274" max="1278" width="8.21875" style="10" customWidth="1"/>
-    <col min="1279" max="1279" width="2.77734375" style="10" customWidth="1"/>
-    <col min="1280" max="1284" width="7.44140625" style="10" customWidth="1"/>
-    <col min="1285" max="1287" width="10.21875" style="10" customWidth="1"/>
-    <col min="1288" max="1529" width="8.77734375" style="10"/>
-    <col min="1530" max="1534" width="8.21875" style="10" customWidth="1"/>
-    <col min="1535" max="1535" width="2.77734375" style="10" customWidth="1"/>
-    <col min="1536" max="1540" width="7.44140625" style="10" customWidth="1"/>
-    <col min="1541" max="1543" width="10.21875" style="10" customWidth="1"/>
-    <col min="1544" max="1785" width="8.77734375" style="10"/>
-    <col min="1786" max="1790" width="8.21875" style="10" customWidth="1"/>
-    <col min="1791" max="1791" width="2.77734375" style="10" customWidth="1"/>
-    <col min="1792" max="1796" width="7.44140625" style="10" customWidth="1"/>
-    <col min="1797" max="1799" width="10.21875" style="10" customWidth="1"/>
-    <col min="1800" max="2041" width="8.77734375" style="10"/>
-    <col min="2042" max="2046" width="8.21875" style="10" customWidth="1"/>
-    <col min="2047" max="2047" width="2.77734375" style="10" customWidth="1"/>
-    <col min="2048" max="2052" width="7.44140625" style="10" customWidth="1"/>
-    <col min="2053" max="2055" width="10.21875" style="10" customWidth="1"/>
-    <col min="2056" max="2297" width="8.77734375" style="10"/>
-    <col min="2298" max="2302" width="8.21875" style="10" customWidth="1"/>
-    <col min="2303" max="2303" width="2.77734375" style="10" customWidth="1"/>
-    <col min="2304" max="2308" width="7.44140625" style="10" customWidth="1"/>
-    <col min="2309" max="2311" width="10.21875" style="10" customWidth="1"/>
-    <col min="2312" max="2553" width="8.77734375" style="10"/>
-    <col min="2554" max="2558" width="8.21875" style="10" customWidth="1"/>
-    <col min="2559" max="2559" width="2.77734375" style="10" customWidth="1"/>
-    <col min="2560" max="2564" width="7.44140625" style="10" customWidth="1"/>
-    <col min="2565" max="2567" width="10.21875" style="10" customWidth="1"/>
-    <col min="2568" max="2809" width="8.77734375" style="10"/>
-    <col min="2810" max="2814" width="8.21875" style="10" customWidth="1"/>
-    <col min="2815" max="2815" width="2.77734375" style="10" customWidth="1"/>
-    <col min="2816" max="2820" width="7.44140625" style="10" customWidth="1"/>
-    <col min="2821" max="2823" width="10.21875" style="10" customWidth="1"/>
-    <col min="2824" max="3065" width="8.77734375" style="10"/>
-    <col min="3066" max="3070" width="8.21875" style="10" customWidth="1"/>
-    <col min="3071" max="3071" width="2.77734375" style="10" customWidth="1"/>
-    <col min="3072" max="3076" width="7.44140625" style="10" customWidth="1"/>
-    <col min="3077" max="3079" width="10.21875" style="10" customWidth="1"/>
-    <col min="3080" max="3321" width="8.77734375" style="10"/>
-    <col min="3322" max="3326" width="8.21875" style="10" customWidth="1"/>
-    <col min="3327" max="3327" width="2.77734375" style="10" customWidth="1"/>
-    <col min="3328" max="3332" width="7.44140625" style="10" customWidth="1"/>
-    <col min="3333" max="3335" width="10.21875" style="10" customWidth="1"/>
-    <col min="3336" max="3577" width="8.77734375" style="10"/>
-    <col min="3578" max="3582" width="8.21875" style="10" customWidth="1"/>
-    <col min="3583" max="3583" width="2.77734375" style="10" customWidth="1"/>
-    <col min="3584" max="3588" width="7.44140625" style="10" customWidth="1"/>
-    <col min="3589" max="3591" width="10.21875" style="10" customWidth="1"/>
-    <col min="3592" max="3833" width="8.77734375" style="10"/>
-    <col min="3834" max="3838" width="8.21875" style="10" customWidth="1"/>
-    <col min="3839" max="3839" width="2.77734375" style="10" customWidth="1"/>
-    <col min="3840" max="3844" width="7.44140625" style="10" customWidth="1"/>
-    <col min="3845" max="3847" width="10.21875" style="10" customWidth="1"/>
-    <col min="3848" max="4089" width="8.77734375" style="10"/>
-    <col min="4090" max="4094" width="8.21875" style="10" customWidth="1"/>
-    <col min="4095" max="4095" width="2.77734375" style="10" customWidth="1"/>
-    <col min="4096" max="4100" width="7.44140625" style="10" customWidth="1"/>
-    <col min="4101" max="4103" width="10.21875" style="10" customWidth="1"/>
-    <col min="4104" max="4345" width="8.77734375" style="10"/>
-    <col min="4346" max="4350" width="8.21875" style="10" customWidth="1"/>
-    <col min="4351" max="4351" width="2.77734375" style="10" customWidth="1"/>
-    <col min="4352" max="4356" width="7.44140625" style="10" customWidth="1"/>
-    <col min="4357" max="4359" width="10.21875" style="10" customWidth="1"/>
-    <col min="4360" max="4601" width="8.77734375" style="10"/>
-    <col min="4602" max="4606" width="8.21875" style="10" customWidth="1"/>
-    <col min="4607" max="4607" width="2.77734375" style="10" customWidth="1"/>
-    <col min="4608" max="4612" width="7.44140625" style="10" customWidth="1"/>
-    <col min="4613" max="4615" width="10.21875" style="10" customWidth="1"/>
-    <col min="4616" max="4857" width="8.77734375" style="10"/>
-    <col min="4858" max="4862" width="8.21875" style="10" customWidth="1"/>
-    <col min="4863" max="4863" width="2.77734375" style="10" customWidth="1"/>
-    <col min="4864" max="4868" width="7.44140625" style="10" customWidth="1"/>
-    <col min="4869" max="4871" width="10.21875" style="10" customWidth="1"/>
-    <col min="4872" max="5113" width="8.77734375" style="10"/>
-    <col min="5114" max="5118" width="8.21875" style="10" customWidth="1"/>
-    <col min="5119" max="5119" width="2.77734375" style="10" customWidth="1"/>
-    <col min="5120" max="5124" width="7.44140625" style="10" customWidth="1"/>
-    <col min="5125" max="5127" width="10.21875" style="10" customWidth="1"/>
-    <col min="5128" max="5369" width="8.77734375" style="10"/>
-    <col min="5370" max="5374" width="8.21875" style="10" customWidth="1"/>
-    <col min="5375" max="5375" width="2.77734375" style="10" customWidth="1"/>
-    <col min="5376" max="5380" width="7.44140625" style="10" customWidth="1"/>
-    <col min="5381" max="5383" width="10.21875" style="10" customWidth="1"/>
-    <col min="5384" max="5625" width="8.77734375" style="10"/>
-    <col min="5626" max="5630" width="8.21875" style="10" customWidth="1"/>
-    <col min="5631" max="5631" width="2.77734375" style="10" customWidth="1"/>
-    <col min="5632" max="5636" width="7.44140625" style="10" customWidth="1"/>
-    <col min="5637" max="5639" width="10.21875" style="10" customWidth="1"/>
-    <col min="5640" max="5881" width="8.77734375" style="10"/>
-    <col min="5882" max="5886" width="8.21875" style="10" customWidth="1"/>
-    <col min="5887" max="5887" width="2.77734375" style="10" customWidth="1"/>
-    <col min="5888" max="5892" width="7.44140625" style="10" customWidth="1"/>
-    <col min="5893" max="5895" width="10.21875" style="10" customWidth="1"/>
-    <col min="5896" max="6137" width="8.77734375" style="10"/>
-    <col min="6138" max="6142" width="8.21875" style="10" customWidth="1"/>
-    <col min="6143" max="6143" width="2.77734375" style="10" customWidth="1"/>
-    <col min="6144" max="6148" width="7.44140625" style="10" customWidth="1"/>
-    <col min="6149" max="6151" width="10.21875" style="10" customWidth="1"/>
-    <col min="6152" max="6393" width="8.77734375" style="10"/>
-    <col min="6394" max="6398" width="8.21875" style="10" customWidth="1"/>
-    <col min="6399" max="6399" width="2.77734375" style="10" customWidth="1"/>
-    <col min="6400" max="6404" width="7.44140625" style="10" customWidth="1"/>
-    <col min="6405" max="6407" width="10.21875" style="10" customWidth="1"/>
-    <col min="6408" max="6649" width="8.77734375" style="10"/>
-    <col min="6650" max="6654" width="8.21875" style="10" customWidth="1"/>
-    <col min="6655" max="6655" width="2.77734375" style="10" customWidth="1"/>
-    <col min="6656" max="6660" width="7.44140625" style="10" customWidth="1"/>
-    <col min="6661" max="6663" width="10.21875" style="10" customWidth="1"/>
-    <col min="6664" max="6905" width="8.77734375" style="10"/>
-    <col min="6906" max="6910" width="8.21875" style="10" customWidth="1"/>
-    <col min="6911" max="6911" width="2.77734375" style="10" customWidth="1"/>
-    <col min="6912" max="6916" width="7.44140625" style="10" customWidth="1"/>
-    <col min="6917" max="6919" width="10.21875" style="10" customWidth="1"/>
-    <col min="6920" max="7161" width="8.77734375" style="10"/>
-    <col min="7162" max="7166" width="8.21875" style="10" customWidth="1"/>
-    <col min="7167" max="7167" width="2.77734375" style="10" customWidth="1"/>
-    <col min="7168" max="7172" width="7.44140625" style="10" customWidth="1"/>
-    <col min="7173" max="7175" width="10.21875" style="10" customWidth="1"/>
-    <col min="7176" max="7417" width="8.77734375" style="10"/>
-    <col min="7418" max="7422" width="8.21875" style="10" customWidth="1"/>
-    <col min="7423" max="7423" width="2.77734375" style="10" customWidth="1"/>
-    <col min="7424" max="7428" width="7.44140625" style="10" customWidth="1"/>
-    <col min="7429" max="7431" width="10.21875" style="10" customWidth="1"/>
-    <col min="7432" max="7673" width="8.77734375" style="10"/>
-    <col min="7674" max="7678" width="8.21875" style="10" customWidth="1"/>
-    <col min="7679" max="7679" width="2.77734375" style="10" customWidth="1"/>
-    <col min="7680" max="7684" width="7.44140625" style="10" customWidth="1"/>
-    <col min="7685" max="7687" width="10.21875" style="10" customWidth="1"/>
-    <col min="7688" max="7929" width="8.77734375" style="10"/>
-    <col min="7930" max="7934" width="8.21875" style="10" customWidth="1"/>
-    <col min="7935" max="7935" width="2.77734375" style="10" customWidth="1"/>
-    <col min="7936" max="7940" width="7.44140625" style="10" customWidth="1"/>
-    <col min="7941" max="7943" width="10.21875" style="10" customWidth="1"/>
-    <col min="7944" max="8185" width="8.77734375" style="10"/>
-    <col min="8186" max="8190" width="8.21875" style="10" customWidth="1"/>
-    <col min="8191" max="8191" width="2.77734375" style="10" customWidth="1"/>
-    <col min="8192" max="8196" width="7.44140625" style="10" customWidth="1"/>
-    <col min="8197" max="8199" width="10.21875" style="10" customWidth="1"/>
-    <col min="8200" max="8441" width="8.77734375" style="10"/>
-    <col min="8442" max="8446" width="8.21875" style="10" customWidth="1"/>
-    <col min="8447" max="8447" width="2.77734375" style="10" customWidth="1"/>
-    <col min="8448" max="8452" width="7.44140625" style="10" customWidth="1"/>
-    <col min="8453" max="8455" width="10.21875" style="10" customWidth="1"/>
-    <col min="8456" max="8697" width="8.77734375" style="10"/>
-    <col min="8698" max="8702" width="8.21875" style="10" customWidth="1"/>
-    <col min="8703" max="8703" width="2.77734375" style="10" customWidth="1"/>
-    <col min="8704" max="8708" width="7.44140625" style="10" customWidth="1"/>
-    <col min="8709" max="8711" width="10.21875" style="10" customWidth="1"/>
-    <col min="8712" max="8953" width="8.77734375" style="10"/>
-    <col min="8954" max="8958" width="8.21875" style="10" customWidth="1"/>
-    <col min="8959" max="8959" width="2.77734375" style="10" customWidth="1"/>
-    <col min="8960" max="8964" width="7.44140625" style="10" customWidth="1"/>
-    <col min="8965" max="8967" width="10.21875" style="10" customWidth="1"/>
-    <col min="8968" max="9209" width="8.77734375" style="10"/>
-    <col min="9210" max="9214" width="8.21875" style="10" customWidth="1"/>
-    <col min="9215" max="9215" width="2.77734375" style="10" customWidth="1"/>
-    <col min="9216" max="9220" width="7.44140625" style="10" customWidth="1"/>
-    <col min="9221" max="9223" width="10.21875" style="10" customWidth="1"/>
-    <col min="9224" max="9465" width="8.77734375" style="10"/>
-    <col min="9466" max="9470" width="8.21875" style="10" customWidth="1"/>
-    <col min="9471" max="9471" width="2.77734375" style="10" customWidth="1"/>
-    <col min="9472" max="9476" width="7.44140625" style="10" customWidth="1"/>
-    <col min="9477" max="9479" width="10.21875" style="10" customWidth="1"/>
-    <col min="9480" max="9721" width="8.77734375" style="10"/>
-    <col min="9722" max="9726" width="8.21875" style="10" customWidth="1"/>
-    <col min="9727" max="9727" width="2.77734375" style="10" customWidth="1"/>
-    <col min="9728" max="9732" width="7.44140625" style="10" customWidth="1"/>
-    <col min="9733" max="9735" width="10.21875" style="10" customWidth="1"/>
-    <col min="9736" max="9977" width="8.77734375" style="10"/>
-    <col min="9978" max="9982" width="8.21875" style="10" customWidth="1"/>
-    <col min="9983" max="9983" width="2.77734375" style="10" customWidth="1"/>
-    <col min="9984" max="9988" width="7.44140625" style="10" customWidth="1"/>
-    <col min="9989" max="9991" width="10.21875" style="10" customWidth="1"/>
-    <col min="9992" max="10233" width="8.77734375" style="10"/>
-    <col min="10234" max="10238" width="8.21875" style="10" customWidth="1"/>
-    <col min="10239" max="10239" width="2.77734375" style="10" customWidth="1"/>
-    <col min="10240" max="10244" width="7.44140625" style="10" customWidth="1"/>
-    <col min="10245" max="10247" width="10.21875" style="10" customWidth="1"/>
-    <col min="10248" max="10489" width="8.77734375" style="10"/>
-    <col min="10490" max="10494" width="8.21875" style="10" customWidth="1"/>
-    <col min="10495" max="10495" width="2.77734375" style="10" customWidth="1"/>
-    <col min="10496" max="10500" width="7.44140625" style="10" customWidth="1"/>
-    <col min="10501" max="10503" width="10.21875" style="10" customWidth="1"/>
-    <col min="10504" max="10745" width="8.77734375" style="10"/>
-    <col min="10746" max="10750" width="8.21875" style="10" customWidth="1"/>
-    <col min="10751" max="10751" width="2.77734375" style="10" customWidth="1"/>
-    <col min="10752" max="10756" width="7.44140625" style="10" customWidth="1"/>
-    <col min="10757" max="10759" width="10.21875" style="10" customWidth="1"/>
-    <col min="10760" max="11001" width="8.77734375" style="10"/>
-    <col min="11002" max="11006" width="8.21875" style="10" customWidth="1"/>
-    <col min="11007" max="11007" width="2.77734375" style="10" customWidth="1"/>
-    <col min="11008" max="11012" width="7.44140625" style="10" customWidth="1"/>
-    <col min="11013" max="11015" width="10.21875" style="10" customWidth="1"/>
-    <col min="11016" max="11257" width="8.77734375" style="10"/>
-    <col min="11258" max="11262" width="8.21875" style="10" customWidth="1"/>
-    <col min="11263" max="11263" width="2.77734375" style="10" customWidth="1"/>
-    <col min="11264" max="11268" width="7.44140625" style="10" customWidth="1"/>
-    <col min="11269" max="11271" width="10.21875" style="10" customWidth="1"/>
-    <col min="11272" max="11513" width="8.77734375" style="10"/>
-    <col min="11514" max="11518" width="8.21875" style="10" customWidth="1"/>
-    <col min="11519" max="11519" width="2.77734375" style="10" customWidth="1"/>
-    <col min="11520" max="11524" width="7.44140625" style="10" customWidth="1"/>
-    <col min="11525" max="11527" width="10.21875" style="10" customWidth="1"/>
-    <col min="11528" max="11769" width="8.77734375" style="10"/>
-    <col min="11770" max="11774" width="8.21875" style="10" customWidth="1"/>
-    <col min="11775" max="11775" width="2.77734375" style="10" customWidth="1"/>
-    <col min="11776" max="11780" width="7.44140625" style="10" customWidth="1"/>
-    <col min="11781" max="11783" width="10.21875" style="10" customWidth="1"/>
-    <col min="11784" max="12025" width="8.77734375" style="10"/>
-    <col min="12026" max="12030" width="8.21875" style="10" customWidth="1"/>
-    <col min="12031" max="12031" width="2.77734375" style="10" customWidth="1"/>
-    <col min="12032" max="12036" width="7.44140625" style="10" customWidth="1"/>
-    <col min="12037" max="12039" width="10.21875" style="10" customWidth="1"/>
-    <col min="12040" max="12281" width="8.77734375" style="10"/>
-    <col min="12282" max="12286" width="8.21875" style="10" customWidth="1"/>
-    <col min="12287" max="12287" width="2.77734375" style="10" customWidth="1"/>
-    <col min="12288" max="12292" width="7.44140625" style="10" customWidth="1"/>
-    <col min="12293" max="12295" width="10.21875" style="10" customWidth="1"/>
-    <col min="12296" max="12537" width="8.77734375" style="10"/>
-    <col min="12538" max="12542" width="8.21875" style="10" customWidth="1"/>
-    <col min="12543" max="12543" width="2.77734375" style="10" customWidth="1"/>
-    <col min="12544" max="12548" width="7.44140625" style="10" customWidth="1"/>
-    <col min="12549" max="12551" width="10.21875" style="10" customWidth="1"/>
-    <col min="12552" max="12793" width="8.77734375" style="10"/>
-    <col min="12794" max="12798" width="8.21875" style="10" customWidth="1"/>
-    <col min="12799" max="12799" width="2.77734375" style="10" customWidth="1"/>
-    <col min="12800" max="12804" width="7.44140625" style="10" customWidth="1"/>
-    <col min="12805" max="12807" width="10.21875" style="10" customWidth="1"/>
-    <col min="12808" max="13049" width="8.77734375" style="10"/>
-    <col min="13050" max="13054" width="8.21875" style="10" customWidth="1"/>
-    <col min="13055" max="13055" width="2.77734375" style="10" customWidth="1"/>
-    <col min="13056" max="13060" width="7.44140625" style="10" customWidth="1"/>
-    <col min="13061" max="13063" width="10.21875" style="10" customWidth="1"/>
-    <col min="13064" max="13305" width="8.77734375" style="10"/>
-    <col min="13306" max="13310" width="8.21875" style="10" customWidth="1"/>
-    <col min="13311" max="13311" width="2.77734375" style="10" customWidth="1"/>
-    <col min="13312" max="13316" width="7.44140625" style="10" customWidth="1"/>
-    <col min="13317" max="13319" width="10.21875" style="10" customWidth="1"/>
-    <col min="13320" max="13561" width="8.77734375" style="10"/>
-    <col min="13562" max="13566" width="8.21875" style="10" customWidth="1"/>
-    <col min="13567" max="13567" width="2.77734375" style="10" customWidth="1"/>
-    <col min="13568" max="13572" width="7.44140625" style="10" customWidth="1"/>
-    <col min="13573" max="13575" width="10.21875" style="10" customWidth="1"/>
-    <col min="13576" max="13817" width="8.77734375" style="10"/>
-    <col min="13818" max="13822" width="8.21875" style="10" customWidth="1"/>
-    <col min="13823" max="13823" width="2.77734375" style="10" customWidth="1"/>
-    <col min="13824" max="13828" width="7.44140625" style="10" customWidth="1"/>
-    <col min="13829" max="13831" width="10.21875" style="10" customWidth="1"/>
-    <col min="13832" max="14073" width="8.77734375" style="10"/>
-    <col min="14074" max="14078" width="8.21875" style="10" customWidth="1"/>
-    <col min="14079" max="14079" width="2.77734375" style="10" customWidth="1"/>
-    <col min="14080" max="14084" width="7.44140625" style="10" customWidth="1"/>
-    <col min="14085" max="14087" width="10.21875" style="10" customWidth="1"/>
-    <col min="14088" max="14329" width="8.77734375" style="10"/>
-    <col min="14330" max="14334" width="8.21875" style="10" customWidth="1"/>
-    <col min="14335" max="14335" width="2.77734375" style="10" customWidth="1"/>
-    <col min="14336" max="14340" width="7.44140625" style="10" customWidth="1"/>
-    <col min="14341" max="14343" width="10.21875" style="10" customWidth="1"/>
-    <col min="14344" max="14585" width="8.77734375" style="10"/>
-    <col min="14586" max="14590" width="8.21875" style="10" customWidth="1"/>
-    <col min="14591" max="14591" width="2.77734375" style="10" customWidth="1"/>
-    <col min="14592" max="14596" width="7.44140625" style="10" customWidth="1"/>
-    <col min="14597" max="14599" width="10.21875" style="10" customWidth="1"/>
-    <col min="14600" max="14841" width="8.77734375" style="10"/>
-    <col min="14842" max="14846" width="8.21875" style="10" customWidth="1"/>
-    <col min="14847" max="14847" width="2.77734375" style="10" customWidth="1"/>
-    <col min="14848" max="14852" width="7.44140625" style="10" customWidth="1"/>
-    <col min="14853" max="14855" width="10.21875" style="10" customWidth="1"/>
-    <col min="14856" max="15097" width="8.77734375" style="10"/>
-    <col min="15098" max="15102" width="8.21875" style="10" customWidth="1"/>
-    <col min="15103" max="15103" width="2.77734375" style="10" customWidth="1"/>
-    <col min="15104" max="15108" width="7.44140625" style="10" customWidth="1"/>
-    <col min="15109" max="15111" width="10.21875" style="10" customWidth="1"/>
-    <col min="15112" max="15353" width="8.77734375" style="10"/>
-    <col min="15354" max="15358" width="8.21875" style="10" customWidth="1"/>
-    <col min="15359" max="15359" width="2.77734375" style="10" customWidth="1"/>
-    <col min="15360" max="15364" width="7.44140625" style="10" customWidth="1"/>
-    <col min="15365" max="15367" width="10.21875" style="10" customWidth="1"/>
-    <col min="15368" max="15609" width="8.77734375" style="10"/>
-    <col min="15610" max="15614" width="8.21875" style="10" customWidth="1"/>
-    <col min="15615" max="15615" width="2.77734375" style="10" customWidth="1"/>
-    <col min="15616" max="15620" width="7.44140625" style="10" customWidth="1"/>
-    <col min="15621" max="15623" width="10.21875" style="10" customWidth="1"/>
-    <col min="15624" max="15865" width="8.77734375" style="10"/>
-    <col min="15866" max="15870" width="8.21875" style="10" customWidth="1"/>
-    <col min="15871" max="15871" width="2.77734375" style="10" customWidth="1"/>
-    <col min="15872" max="15876" width="7.44140625" style="10" customWidth="1"/>
-    <col min="15877" max="15879" width="10.21875" style="10" customWidth="1"/>
-    <col min="15880" max="16121" width="8.77734375" style="10"/>
-    <col min="16122" max="16126" width="8.21875" style="10" customWidth="1"/>
-    <col min="16127" max="16127" width="2.77734375" style="10" customWidth="1"/>
-    <col min="16128" max="16132" width="7.44140625" style="10" customWidth="1"/>
-    <col min="16133" max="16135" width="10.21875" style="10" customWidth="1"/>
-    <col min="16136" max="16384" width="8.77734375" style="10"/>
+    <col min="1" max="1" width="3.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="10" customWidth="1"/>
+    <col min="5" max="7" width="10.28515625" style="10" customWidth="1"/>
+    <col min="8" max="10" width="8.7109375" style="10"/>
+    <col min="11" max="11" width="10.42578125" style="10" customWidth="1"/>
+    <col min="12" max="249" width="8.7109375" style="10"/>
+    <col min="250" max="254" width="8.28515625" style="10" customWidth="1"/>
+    <col min="255" max="255" width="2.7109375" style="10" customWidth="1"/>
+    <col min="256" max="260" width="7.42578125" style="10" customWidth="1"/>
+    <col min="261" max="263" width="10.28515625" style="10" customWidth="1"/>
+    <col min="264" max="505" width="8.7109375" style="10"/>
+    <col min="506" max="510" width="8.28515625" style="10" customWidth="1"/>
+    <col min="511" max="511" width="2.7109375" style="10" customWidth="1"/>
+    <col min="512" max="516" width="7.42578125" style="10" customWidth="1"/>
+    <col min="517" max="519" width="10.28515625" style="10" customWidth="1"/>
+    <col min="520" max="761" width="8.7109375" style="10"/>
+    <col min="762" max="766" width="8.28515625" style="10" customWidth="1"/>
+    <col min="767" max="767" width="2.7109375" style="10" customWidth="1"/>
+    <col min="768" max="772" width="7.42578125" style="10" customWidth="1"/>
+    <col min="773" max="775" width="10.28515625" style="10" customWidth="1"/>
+    <col min="776" max="1017" width="8.7109375" style="10"/>
+    <col min="1018" max="1022" width="8.28515625" style="10" customWidth="1"/>
+    <col min="1023" max="1023" width="2.7109375" style="10" customWidth="1"/>
+    <col min="1024" max="1028" width="7.42578125" style="10" customWidth="1"/>
+    <col min="1029" max="1031" width="10.28515625" style="10" customWidth="1"/>
+    <col min="1032" max="1273" width="8.7109375" style="10"/>
+    <col min="1274" max="1278" width="8.28515625" style="10" customWidth="1"/>
+    <col min="1279" max="1279" width="2.7109375" style="10" customWidth="1"/>
+    <col min="1280" max="1284" width="7.42578125" style="10" customWidth="1"/>
+    <col min="1285" max="1287" width="10.28515625" style="10" customWidth="1"/>
+    <col min="1288" max="1529" width="8.7109375" style="10"/>
+    <col min="1530" max="1534" width="8.28515625" style="10" customWidth="1"/>
+    <col min="1535" max="1535" width="2.7109375" style="10" customWidth="1"/>
+    <col min="1536" max="1540" width="7.42578125" style="10" customWidth="1"/>
+    <col min="1541" max="1543" width="10.28515625" style="10" customWidth="1"/>
+    <col min="1544" max="1785" width="8.7109375" style="10"/>
+    <col min="1786" max="1790" width="8.28515625" style="10" customWidth="1"/>
+    <col min="1791" max="1791" width="2.7109375" style="10" customWidth="1"/>
+    <col min="1792" max="1796" width="7.42578125" style="10" customWidth="1"/>
+    <col min="1797" max="1799" width="10.28515625" style="10" customWidth="1"/>
+    <col min="1800" max="2041" width="8.7109375" style="10"/>
+    <col min="2042" max="2046" width="8.28515625" style="10" customWidth="1"/>
+    <col min="2047" max="2047" width="2.7109375" style="10" customWidth="1"/>
+    <col min="2048" max="2052" width="7.42578125" style="10" customWidth="1"/>
+    <col min="2053" max="2055" width="10.28515625" style="10" customWidth="1"/>
+    <col min="2056" max="2297" width="8.7109375" style="10"/>
+    <col min="2298" max="2302" width="8.28515625" style="10" customWidth="1"/>
+    <col min="2303" max="2303" width="2.7109375" style="10" customWidth="1"/>
+    <col min="2304" max="2308" width="7.42578125" style="10" customWidth="1"/>
+    <col min="2309" max="2311" width="10.28515625" style="10" customWidth="1"/>
+    <col min="2312" max="2553" width="8.7109375" style="10"/>
+    <col min="2554" max="2558" width="8.28515625" style="10" customWidth="1"/>
+    <col min="2559" max="2559" width="2.7109375" style="10" customWidth="1"/>
+    <col min="2560" max="2564" width="7.42578125" style="10" customWidth="1"/>
+    <col min="2565" max="2567" width="10.28515625" style="10" customWidth="1"/>
+    <col min="2568" max="2809" width="8.7109375" style="10"/>
+    <col min="2810" max="2814" width="8.28515625" style="10" customWidth="1"/>
+    <col min="2815" max="2815" width="2.7109375" style="10" customWidth="1"/>
+    <col min="2816" max="2820" width="7.42578125" style="10" customWidth="1"/>
+    <col min="2821" max="2823" width="10.28515625" style="10" customWidth="1"/>
+    <col min="2824" max="3065" width="8.7109375" style="10"/>
+    <col min="3066" max="3070" width="8.28515625" style="10" customWidth="1"/>
+    <col min="3071" max="3071" width="2.7109375" style="10" customWidth="1"/>
+    <col min="3072" max="3076" width="7.42578125" style="10" customWidth="1"/>
+    <col min="3077" max="3079" width="10.28515625" style="10" customWidth="1"/>
+    <col min="3080" max="3321" width="8.7109375" style="10"/>
+    <col min="3322" max="3326" width="8.28515625" style="10" customWidth="1"/>
+    <col min="3327" max="3327" width="2.7109375" style="10" customWidth="1"/>
+    <col min="3328" max="3332" width="7.42578125" style="10" customWidth="1"/>
+    <col min="3333" max="3335" width="10.28515625" style="10" customWidth="1"/>
+    <col min="3336" max="3577" width="8.7109375" style="10"/>
+    <col min="3578" max="3582" width="8.28515625" style="10" customWidth="1"/>
+    <col min="3583" max="3583" width="2.7109375" style="10" customWidth="1"/>
+    <col min="3584" max="3588" width="7.42578125" style="10" customWidth="1"/>
+    <col min="3589" max="3591" width="10.28515625" style="10" customWidth="1"/>
+    <col min="3592" max="3833" width="8.7109375" style="10"/>
+    <col min="3834" max="3838" width="8.28515625" style="10" customWidth="1"/>
+    <col min="3839" max="3839" width="2.7109375" style="10" customWidth="1"/>
+    <col min="3840" max="3844" width="7.42578125" style="10" customWidth="1"/>
+    <col min="3845" max="3847" width="10.28515625" style="10" customWidth="1"/>
+    <col min="3848" max="4089" width="8.7109375" style="10"/>
+    <col min="4090" max="4094" width="8.28515625" style="10" customWidth="1"/>
+    <col min="4095" max="4095" width="2.7109375" style="10" customWidth="1"/>
+    <col min="4096" max="4100" width="7.42578125" style="10" customWidth="1"/>
+    <col min="4101" max="4103" width="10.28515625" style="10" customWidth="1"/>
+    <col min="4104" max="4345" width="8.7109375" style="10"/>
+    <col min="4346" max="4350" width="8.28515625" style="10" customWidth="1"/>
+    <col min="4351" max="4351" width="2.7109375" style="10" customWidth="1"/>
+    <col min="4352" max="4356" width="7.42578125" style="10" customWidth="1"/>
+    <col min="4357" max="4359" width="10.28515625" style="10" customWidth="1"/>
+    <col min="4360" max="4601" width="8.7109375" style="10"/>
+    <col min="4602" max="4606" width="8.28515625" style="10" customWidth="1"/>
+    <col min="4607" max="4607" width="2.7109375" style="10" customWidth="1"/>
+    <col min="4608" max="4612" width="7.42578125" style="10" customWidth="1"/>
+    <col min="4613" max="4615" width="10.28515625" style="10" customWidth="1"/>
+    <col min="4616" max="4857" width="8.7109375" style="10"/>
+    <col min="4858" max="4862" width="8.28515625" style="10" customWidth="1"/>
+    <col min="4863" max="4863" width="2.7109375" style="10" customWidth="1"/>
+    <col min="4864" max="4868" width="7.42578125" style="10" customWidth="1"/>
+    <col min="4869" max="4871" width="10.28515625" style="10" customWidth="1"/>
+    <col min="4872" max="5113" width="8.7109375" style="10"/>
+    <col min="5114" max="5118" width="8.28515625" style="10" customWidth="1"/>
+    <col min="5119" max="5119" width="2.7109375" style="10" customWidth="1"/>
+    <col min="5120" max="5124" width="7.42578125" style="10" customWidth="1"/>
+    <col min="5125" max="5127" width="10.28515625" style="10" customWidth="1"/>
+    <col min="5128" max="5369" width="8.7109375" style="10"/>
+    <col min="5370" max="5374" width="8.28515625" style="10" customWidth="1"/>
+    <col min="5375" max="5375" width="2.7109375" style="10" customWidth="1"/>
+    <col min="5376" max="5380" width="7.42578125" style="10" customWidth="1"/>
+    <col min="5381" max="5383" width="10.28515625" style="10" customWidth="1"/>
+    <col min="5384" max="5625" width="8.7109375" style="10"/>
+    <col min="5626" max="5630" width="8.28515625" style="10" customWidth="1"/>
+    <col min="5631" max="5631" width="2.7109375" style="10" customWidth="1"/>
+    <col min="5632" max="5636" width="7.42578125" style="10" customWidth="1"/>
+    <col min="5637" max="5639" width="10.28515625" style="10" customWidth="1"/>
+    <col min="5640" max="5881" width="8.7109375" style="10"/>
+    <col min="5882" max="5886" width="8.28515625" style="10" customWidth="1"/>
+    <col min="5887" max="5887" width="2.7109375" style="10" customWidth="1"/>
+    <col min="5888" max="5892" width="7.42578125" style="10" customWidth="1"/>
+    <col min="5893" max="5895" width="10.28515625" style="10" customWidth="1"/>
+    <col min="5896" max="6137" width="8.7109375" style="10"/>
+    <col min="6138" max="6142" width="8.28515625" style="10" customWidth="1"/>
+    <col min="6143" max="6143" width="2.7109375" style="10" customWidth="1"/>
+    <col min="6144" max="6148" width="7.42578125" style="10" customWidth="1"/>
+    <col min="6149" max="6151" width="10.28515625" style="10" customWidth="1"/>
+    <col min="6152" max="6393" width="8.7109375" style="10"/>
+    <col min="6394" max="6398" width="8.28515625" style="10" customWidth="1"/>
+    <col min="6399" max="6399" width="2.7109375" style="10" customWidth="1"/>
+    <col min="6400" max="6404" width="7.42578125" style="10" customWidth="1"/>
+    <col min="6405" max="6407" width="10.28515625" style="10" customWidth="1"/>
+    <col min="6408" max="6649" width="8.7109375" style="10"/>
+    <col min="6650" max="6654" width="8.28515625" style="10" customWidth="1"/>
+    <col min="6655" max="6655" width="2.7109375" style="10" customWidth="1"/>
+    <col min="6656" max="6660" width="7.42578125" style="10" customWidth="1"/>
+    <col min="6661" max="6663" width="10.28515625" style="10" customWidth="1"/>
+    <col min="6664" max="6905" width="8.7109375" style="10"/>
+    <col min="6906" max="6910" width="8.28515625" style="10" customWidth="1"/>
+    <col min="6911" max="6911" width="2.7109375" style="10" customWidth="1"/>
+    <col min="6912" max="6916" width="7.42578125" style="10" customWidth="1"/>
+    <col min="6917" max="6919" width="10.28515625" style="10" customWidth="1"/>
+    <col min="6920" max="7161" width="8.7109375" style="10"/>
+    <col min="7162" max="7166" width="8.28515625" style="10" customWidth="1"/>
+    <col min="7167" max="7167" width="2.7109375" style="10" customWidth="1"/>
+    <col min="7168" max="7172" width="7.42578125" style="10" customWidth="1"/>
+    <col min="7173" max="7175" width="10.28515625" style="10" customWidth="1"/>
+    <col min="7176" max="7417" width="8.7109375" style="10"/>
+    <col min="7418" max="7422" width="8.28515625" style="10" customWidth="1"/>
+    <col min="7423" max="7423" width="2.7109375" style="10" customWidth="1"/>
+    <col min="7424" max="7428" width="7.42578125" style="10" customWidth="1"/>
+    <col min="7429" max="7431" width="10.28515625" style="10" customWidth="1"/>
+    <col min="7432" max="7673" width="8.7109375" style="10"/>
+    <col min="7674" max="7678" width="8.28515625" style="10" customWidth="1"/>
+    <col min="7679" max="7679" width="2.7109375" style="10" customWidth="1"/>
+    <col min="7680" max="7684" width="7.42578125" style="10" customWidth="1"/>
+    <col min="7685" max="7687" width="10.28515625" style="10" customWidth="1"/>
+    <col min="7688" max="7929" width="8.7109375" style="10"/>
+    <col min="7930" max="7934" width="8.28515625" style="10" customWidth="1"/>
+    <col min="7935" max="7935" width="2.7109375" style="10" customWidth="1"/>
+    <col min="7936" max="7940" width="7.42578125" style="10" customWidth="1"/>
+    <col min="7941" max="7943" width="10.28515625" style="10" customWidth="1"/>
+    <col min="7944" max="8185" width="8.7109375" style="10"/>
+    <col min="8186" max="8190" width="8.28515625" style="10" customWidth="1"/>
+    <col min="8191" max="8191" width="2.7109375" style="10" customWidth="1"/>
+    <col min="8192" max="8196" width="7.42578125" style="10" customWidth="1"/>
+    <col min="8197" max="8199" width="10.28515625" style="10" customWidth="1"/>
+    <col min="8200" max="8441" width="8.7109375" style="10"/>
+    <col min="8442" max="8446" width="8.28515625" style="10" customWidth="1"/>
+    <col min="8447" max="8447" width="2.7109375" style="10" customWidth="1"/>
+    <col min="8448" max="8452" width="7.42578125" style="10" customWidth="1"/>
+    <col min="8453" max="8455" width="10.28515625" style="10" customWidth="1"/>
+    <col min="8456" max="8697" width="8.7109375" style="10"/>
+    <col min="8698" max="8702" width="8.28515625" style="10" customWidth="1"/>
+    <col min="8703" max="8703" width="2.7109375" style="10" customWidth="1"/>
+    <col min="8704" max="8708" width="7.42578125" style="10" customWidth="1"/>
+    <col min="8709" max="8711" width="10.28515625" style="10" customWidth="1"/>
+    <col min="8712" max="8953" width="8.7109375" style="10"/>
+    <col min="8954" max="8958" width="8.28515625" style="10" customWidth="1"/>
+    <col min="8959" max="8959" width="2.7109375" style="10" customWidth="1"/>
+    <col min="8960" max="8964" width="7.42578125" style="10" customWidth="1"/>
+    <col min="8965" max="8967" width="10.28515625" style="10" customWidth="1"/>
+    <col min="8968" max="9209" width="8.7109375" style="10"/>
+    <col min="9210" max="9214" width="8.28515625" style="10" customWidth="1"/>
+    <col min="9215" max="9215" width="2.7109375" style="10" customWidth="1"/>
+    <col min="9216" max="9220" width="7.42578125" style="10" customWidth="1"/>
+    <col min="9221" max="9223" width="10.28515625" style="10" customWidth="1"/>
+    <col min="9224" max="9465" width="8.7109375" style="10"/>
+    <col min="9466" max="9470" width="8.28515625" style="10" customWidth="1"/>
+    <col min="9471" max="9471" width="2.7109375" style="10" customWidth="1"/>
+    <col min="9472" max="9476" width="7.42578125" style="10" customWidth="1"/>
+    <col min="9477" max="9479" width="10.28515625" style="10" customWidth="1"/>
+    <col min="9480" max="9721" width="8.7109375" style="10"/>
+    <col min="9722" max="9726" width="8.28515625" style="10" customWidth="1"/>
+    <col min="9727" max="9727" width="2.7109375" style="10" customWidth="1"/>
+    <col min="9728" max="9732" width="7.42578125" style="10" customWidth="1"/>
+    <col min="9733" max="9735" width="10.28515625" style="10" customWidth="1"/>
+    <col min="9736" max="9977" width="8.7109375" style="10"/>
+    <col min="9978" max="9982" width="8.28515625" style="10" customWidth="1"/>
+    <col min="9983" max="9983" width="2.7109375" style="10" customWidth="1"/>
+    <col min="9984" max="9988" width="7.42578125" style="10" customWidth="1"/>
+    <col min="9989" max="9991" width="10.28515625" style="10" customWidth="1"/>
+    <col min="9992" max="10233" width="8.7109375" style="10"/>
+    <col min="10234" max="10238" width="8.28515625" style="10" customWidth="1"/>
+    <col min="10239" max="10239" width="2.7109375" style="10" customWidth="1"/>
+    <col min="10240" max="10244" width="7.42578125" style="10" customWidth="1"/>
+    <col min="10245" max="10247" width="10.28515625" style="10" customWidth="1"/>
+    <col min="10248" max="10489" width="8.7109375" style="10"/>
+    <col min="10490" max="10494" width="8.28515625" style="10" customWidth="1"/>
+    <col min="10495" max="10495" width="2.7109375" style="10" customWidth="1"/>
+    <col min="10496" max="10500" width="7.42578125" style="10" customWidth="1"/>
+    <col min="10501" max="10503" width="10.28515625" style="10" customWidth="1"/>
+    <col min="10504" max="10745" width="8.7109375" style="10"/>
+    <col min="10746" max="10750" width="8.28515625" style="10" customWidth="1"/>
+    <col min="10751" max="10751" width="2.7109375" style="10" customWidth="1"/>
+    <col min="10752" max="10756" width="7.42578125" style="10" customWidth="1"/>
+    <col min="10757" max="10759" width="10.28515625" style="10" customWidth="1"/>
+    <col min="10760" max="11001" width="8.7109375" style="10"/>
+    <col min="11002" max="11006" width="8.28515625" style="10" customWidth="1"/>
+    <col min="11007" max="11007" width="2.7109375" style="10" customWidth="1"/>
+    <col min="11008" max="11012" width="7.42578125" style="10" customWidth="1"/>
+    <col min="11013" max="11015" width="10.28515625" style="10" customWidth="1"/>
+    <col min="11016" max="11257" width="8.7109375" style="10"/>
+    <col min="11258" max="11262" width="8.28515625" style="10" customWidth="1"/>
+    <col min="11263" max="11263" width="2.7109375" style="10" customWidth="1"/>
+    <col min="11264" max="11268" width="7.42578125" style="10" customWidth="1"/>
+    <col min="11269" max="11271" width="10.28515625" style="10" customWidth="1"/>
+    <col min="11272" max="11513" width="8.7109375" style="10"/>
+    <col min="11514" max="11518" width="8.28515625" style="10" customWidth="1"/>
+    <col min="11519" max="11519" width="2.7109375" style="10" customWidth="1"/>
+    <col min="11520" max="11524" width="7.42578125" style="10" customWidth="1"/>
+    <col min="11525" max="11527" width="10.28515625" style="10" customWidth="1"/>
+    <col min="11528" max="11769" width="8.7109375" style="10"/>
+    <col min="11770" max="11774" width="8.28515625" style="10" customWidth="1"/>
+    <col min="11775" max="11775" width="2.7109375" style="10" customWidth="1"/>
+    <col min="11776" max="11780" width="7.42578125" style="10" customWidth="1"/>
+    <col min="11781" max="11783" width="10.28515625" style="10" customWidth="1"/>
+    <col min="11784" max="12025" width="8.7109375" style="10"/>
+    <col min="12026" max="12030" width="8.28515625" style="10" customWidth="1"/>
+    <col min="12031" max="12031" width="2.7109375" style="10" customWidth="1"/>
+    <col min="12032" max="12036" width="7.42578125" style="10" customWidth="1"/>
+    <col min="12037" max="12039" width="10.28515625" style="10" customWidth="1"/>
+    <col min="12040" max="12281" width="8.7109375" style="10"/>
+    <col min="12282" max="12286" width="8.28515625" style="10" customWidth="1"/>
+    <col min="12287" max="12287" width="2.7109375" style="10" customWidth="1"/>
+    <col min="12288" max="12292" width="7.42578125" style="10" customWidth="1"/>
+    <col min="12293" max="12295" width="10.28515625" style="10" customWidth="1"/>
+    <col min="12296" max="12537" width="8.7109375" style="10"/>
+    <col min="12538" max="12542" width="8.28515625" style="10" customWidth="1"/>
+    <col min="12543" max="12543" width="2.7109375" style="10" customWidth="1"/>
+    <col min="12544" max="12548" width="7.42578125" style="10" customWidth="1"/>
+    <col min="12549" max="12551" width="10.28515625" style="10" customWidth="1"/>
+    <col min="12552" max="12793" width="8.7109375" style="10"/>
+    <col min="12794" max="12798" width="8.28515625" style="10" customWidth="1"/>
+    <col min="12799" max="12799" width="2.7109375" style="10" customWidth="1"/>
+    <col min="12800" max="12804" width="7.42578125" style="10" customWidth="1"/>
+    <col min="12805" max="12807" width="10.28515625" style="10" customWidth="1"/>
+    <col min="12808" max="13049" width="8.7109375" style="10"/>
+    <col min="13050" max="13054" width="8.28515625" style="10" customWidth="1"/>
+    <col min="13055" max="13055" width="2.7109375" style="10" customWidth="1"/>
+    <col min="13056" max="13060" width="7.42578125" style="10" customWidth="1"/>
+    <col min="13061" max="13063" width="10.28515625" style="10" customWidth="1"/>
+    <col min="13064" max="13305" width="8.7109375" style="10"/>
+    <col min="13306" max="13310" width="8.28515625" style="10" customWidth="1"/>
+    <col min="13311" max="13311" width="2.7109375" style="10" customWidth="1"/>
+    <col min="13312" max="13316" width="7.42578125" style="10" customWidth="1"/>
+    <col min="13317" max="13319" width="10.28515625" style="10" customWidth="1"/>
+    <col min="13320" max="13561" width="8.7109375" style="10"/>
+    <col min="13562" max="13566" width="8.28515625" style="10" customWidth="1"/>
+    <col min="13567" max="13567" width="2.7109375" style="10" customWidth="1"/>
+    <col min="13568" max="13572" width="7.42578125" style="10" customWidth="1"/>
+    <col min="13573" max="13575" width="10.28515625" style="10" customWidth="1"/>
+    <col min="13576" max="13817" width="8.7109375" style="10"/>
+    <col min="13818" max="13822" width="8.28515625" style="10" customWidth="1"/>
+    <col min="13823" max="13823" width="2.7109375" style="10" customWidth="1"/>
+    <col min="13824" max="13828" width="7.42578125" style="10" customWidth="1"/>
+    <col min="13829" max="13831" width="10.28515625" style="10" customWidth="1"/>
+    <col min="13832" max="14073" width="8.7109375" style="10"/>
+    <col min="14074" max="14078" width="8.28515625" style="10" customWidth="1"/>
+    <col min="14079" max="14079" width="2.7109375" style="10" customWidth="1"/>
+    <col min="14080" max="14084" width="7.42578125" style="10" customWidth="1"/>
+    <col min="14085" max="14087" width="10.28515625" style="10" customWidth="1"/>
+    <col min="14088" max="14329" width="8.7109375" style="10"/>
+    <col min="14330" max="14334" width="8.28515625" style="10" customWidth="1"/>
+    <col min="14335" max="14335" width="2.7109375" style="10" customWidth="1"/>
+    <col min="14336" max="14340" width="7.42578125" style="10" customWidth="1"/>
+    <col min="14341" max="14343" width="10.28515625" style="10" customWidth="1"/>
+    <col min="14344" max="14585" width="8.7109375" style="10"/>
+    <col min="14586" max="14590" width="8.28515625" style="10" customWidth="1"/>
+    <col min="14591" max="14591" width="2.7109375" style="10" customWidth="1"/>
+    <col min="14592" max="14596" width="7.42578125" style="10" customWidth="1"/>
+    <col min="14597" max="14599" width="10.28515625" style="10" customWidth="1"/>
+    <col min="14600" max="14841" width="8.7109375" style="10"/>
+    <col min="14842" max="14846" width="8.28515625" style="10" customWidth="1"/>
+    <col min="14847" max="14847" width="2.7109375" style="10" customWidth="1"/>
+    <col min="14848" max="14852" width="7.42578125" style="10" customWidth="1"/>
+    <col min="14853" max="14855" width="10.28515625" style="10" customWidth="1"/>
+    <col min="14856" max="15097" width="8.7109375" style="10"/>
+    <col min="15098" max="15102" width="8.28515625" style="10" customWidth="1"/>
+    <col min="15103" max="15103" width="2.7109375" style="10" customWidth="1"/>
+    <col min="15104" max="15108" width="7.42578125" style="10" customWidth="1"/>
+    <col min="15109" max="15111" width="10.28515625" style="10" customWidth="1"/>
+    <col min="15112" max="15353" width="8.7109375" style="10"/>
+    <col min="15354" max="15358" width="8.28515625" style="10" customWidth="1"/>
+    <col min="15359" max="15359" width="2.7109375" style="10" customWidth="1"/>
+    <col min="15360" max="15364" width="7.42578125" style="10" customWidth="1"/>
+    <col min="15365" max="15367" width="10.28515625" style="10" customWidth="1"/>
+    <col min="15368" max="15609" width="8.7109375" style="10"/>
+    <col min="15610" max="15614" width="8.28515625" style="10" customWidth="1"/>
+    <col min="15615" max="15615" width="2.7109375" style="10" customWidth="1"/>
+    <col min="15616" max="15620" width="7.42578125" style="10" customWidth="1"/>
+    <col min="15621" max="15623" width="10.28515625" style="10" customWidth="1"/>
+    <col min="15624" max="15865" width="8.7109375" style="10"/>
+    <col min="15866" max="15870" width="8.28515625" style="10" customWidth="1"/>
+    <col min="15871" max="15871" width="2.7109375" style="10" customWidth="1"/>
+    <col min="15872" max="15876" width="7.42578125" style="10" customWidth="1"/>
+    <col min="15877" max="15879" width="10.28515625" style="10" customWidth="1"/>
+    <col min="15880" max="16121" width="8.7109375" style="10"/>
+    <col min="16122" max="16126" width="8.28515625" style="10" customWidth="1"/>
+    <col min="16127" max="16127" width="2.7109375" style="10" customWidth="1"/>
+    <col min="16128" max="16132" width="7.42578125" style="10" customWidth="1"/>
+    <col min="16133" max="16135" width="10.28515625" style="10" customWidth="1"/>
+    <col min="16136" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
     </row>
@@ -3321,29 +3317,29 @@
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:13" ht="13.15" x14ac:dyDescent="0.25">
+      <c r="B4" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="39"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="14"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="13.15" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>0</v>
       </c>
@@ -3358,7 +3354,7 @@
       <c r="G5" s="20"/>
       <c r="I5" s="21"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="13.15" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>2</v>
       </c>
@@ -3371,7 +3367,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="13.15" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>4</v>
       </c>
@@ -3387,7 +3383,7 @@
       <c r="H7" s="22"/>
       <c r="I7" s="21"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="13.15" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <v>5</v>
       </c>
@@ -3401,7 +3397,7 @@
       <c r="H8" s="22"/>
       <c r="I8" s="21"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="13.15" x14ac:dyDescent="0.25">
       <c r="B9" s="16">
         <v>6</v>
       </c>
@@ -3415,7 +3411,7 @@
       <c r="H9" s="22"/>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="13.15" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>7</v>
       </c>
@@ -3428,7 +3424,7 @@
       <c r="H10" s="22"/>
       <c r="I10" s="21"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="13.15" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>8</v>
       </c>
@@ -3442,7 +3438,7 @@
       <c r="H11" s="22"/>
       <c r="I11" s="21"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="13.15" x14ac:dyDescent="0.25">
       <c r="B12" s="16">
         <v>9</v>
       </c>
@@ -3458,7 +3454,7 @@
       <c r="H12" s="22"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="13.15" x14ac:dyDescent="0.25">
       <c r="B13" s="16">
         <v>10</v>
       </c>
@@ -3472,7 +3468,7 @@
       <c r="H13" s="22"/>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="13.15" x14ac:dyDescent="0.25">
       <c r="B14" s="16">
         <v>11</v>
       </c>
@@ -3485,7 +3481,7 @@
       <c r="H14" s="22"/>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="13.15" x14ac:dyDescent="0.25">
       <c r="B15" s="16">
         <v>12</v>
       </c>
@@ -3499,7 +3495,7 @@
       <c r="H15" s="22"/>
       <c r="I15" s="21"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="13.15" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
         <v>13</v>
       </c>
@@ -3513,7 +3509,7 @@
       <c r="H16" s="22"/>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="13.15" x14ac:dyDescent="0.25">
       <c r="B17" s="16">
         <v>14</v>
       </c>
@@ -3528,7 +3524,7 @@
       <c r="G17" s="20"/>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="13.15" x14ac:dyDescent="0.25">
       <c r="B18" s="16">
         <v>16</v>
       </c>
@@ -3541,7 +3537,7 @@
       <c r="G18" s="20"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="13.15" x14ac:dyDescent="0.25">
       <c r="B19" s="16">
         <v>18</v>
       </c>
@@ -3554,7 +3550,7 @@
       <c r="G19" s="20"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="13.15" x14ac:dyDescent="0.25">
       <c r="B20" s="16">
         <v>20</v>
       </c>
@@ -3569,7 +3565,7 @@
       <c r="G20" s="20"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="13.15" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="C21" s="24"/>
       <c r="D21" s="19"/>
@@ -3578,7 +3574,7 @@
       <c r="G21" s="20"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
       <c r="E22" s="20"/>
@@ -3586,28 +3582,28 @@
       <c r="G22" s="20"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" s="18"/>
       <c r="C23" s="24"/>
       <c r="D23" s="19"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
     </row>
-    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-    </row>
-    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3619,7 +3615,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="16">
         <v>0</v>
       </c>
@@ -3634,7 +3630,7 @@
       <c r="G26" s="20"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" s="16">
         <v>3</v>
       </c>
@@ -3650,7 +3646,7 @@
       <c r="H27" s="22"/>
       <c r="I27" s="21"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" s="16">
         <v>4</v>
       </c>
@@ -3663,7 +3659,7 @@
       <c r="H28" s="22"/>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" s="16">
         <v>5</v>
       </c>
@@ -3676,7 +3672,7 @@
       <c r="H29" s="22"/>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" s="16">
         <v>6</v>
       </c>
@@ -3690,7 +3686,7 @@
       <c r="H30" s="22"/>
       <c r="I30" s="21"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" s="16">
         <v>6.5</v>
       </c>
@@ -3706,7 +3702,7 @@
       <c r="H31" s="22"/>
       <c r="I31" s="21"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" s="16">
         <v>7</v>
       </c>
@@ -3720,7 +3716,7 @@
       <c r="H32" s="22"/>
       <c r="I32" s="21"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B33" s="16">
         <v>8</v>
       </c>
@@ -3733,7 +3729,7 @@
       <c r="H33" s="22"/>
       <c r="I33" s="21"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" s="16">
         <v>9</v>
       </c>
@@ -3747,7 +3743,7 @@
       <c r="H34" s="22"/>
       <c r="I34" s="21"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" s="16">
         <v>10</v>
       </c>
@@ -3763,7 +3759,7 @@
       <c r="H35" s="22"/>
       <c r="I35" s="21"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B36" s="16">
         <v>15</v>
       </c>
@@ -3776,7 +3772,7 @@
       <c r="H36" s="22"/>
       <c r="I36" s="21"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B37" s="16">
         <v>20</v>
       </c>
@@ -3792,7 +3788,7 @@
       <c r="H37" s="22"/>
       <c r="I37" s="21"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" s="18"/>
       <c r="C38" s="24"/>
       <c r="D38" s="19"/>
@@ -3801,35 +3797,35 @@
       <c r="G38" s="20"/>
       <c r="I38" s="21"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" s="18"/>
       <c r="C39" s="24"/>
       <c r="D39" s="19"/>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" s="18"/>
       <c r="C40" s="24"/>
       <c r="D40" s="19"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
     </row>
-    <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="39" t="s">
+    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-    </row>
-    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+    </row>
+    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B42" s="12"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
@@ -3837,17 +3833,17 @@
       <c r="F42" s="25"/>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="39" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="39"/>
+      <c r="C43" s="40"/>
       <c r="D43" s="14"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" s="16">
         <v>0</v>
       </c>
@@ -3862,7 +3858,7 @@
       <c r="G44" s="20"/>
       <c r="I44" s="21"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" s="16">
         <v>2</v>
       </c>
@@ -3875,7 +3871,7 @@
       <c r="H45" s="22"/>
       <c r="I45" s="21"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B46" s="16">
         <v>4</v>
       </c>
@@ -3888,7 +3884,7 @@
       <c r="H46" s="22"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B47" s="16">
         <v>5</v>
       </c>
@@ -3902,7 +3898,7 @@
       <c r="H47" s="22"/>
       <c r="I47" s="21"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" s="16">
         <v>6</v>
       </c>
@@ -3918,7 +3914,7 @@
       <c r="H48" s="22"/>
       <c r="I48" s="21"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="16">
         <v>8</v>
       </c>
@@ -3931,7 +3927,7 @@
       <c r="H49" s="22"/>
       <c r="I49" s="21"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="16">
         <v>10</v>
       </c>
@@ -3945,7 +3941,7 @@
       <c r="H50" s="22"/>
       <c r="I50" s="21"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="16">
         <v>12</v>
       </c>
@@ -3959,7 +3955,7 @@
       <c r="H51" s="22"/>
       <c r="I51" s="21"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="16">
         <v>14</v>
       </c>
@@ -3973,7 +3969,7 @@
       <c r="H52" s="22"/>
       <c r="I52" s="21"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="16">
         <v>15</v>
       </c>
@@ -3989,7 +3985,7 @@
       <c r="H53" s="22"/>
       <c r="I53" s="21"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="16">
         <v>16</v>
       </c>
@@ -4003,7 +3999,7 @@
       <c r="H54" s="22"/>
       <c r="I54" s="21"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="16">
         <v>18</v>
       </c>
@@ -4016,7 +4012,7 @@
       <c r="H55" s="22"/>
       <c r="I55" s="21"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="16">
         <v>20</v>
       </c>
@@ -4028,7 +4024,7 @@
       <c r="G56" s="20"/>
       <c r="I56" s="21"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="16">
         <v>22</v>
       </c>
@@ -4043,7 +4039,7 @@
       <c r="G57" s="20"/>
       <c r="I57" s="21"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="16">
         <v>24</v>
       </c>
@@ -4056,7 +4052,7 @@
       <c r="G58" s="20"/>
       <c r="I58" s="21"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="16">
         <v>30</v>
       </c>
@@ -4071,45 +4067,45 @@
       <c r="G59" s="20"/>
       <c r="I59" s="21"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="16"/>
       <c r="C60" s="17"/>
       <c r="D60" s="19"/>
       <c r="F60" s="23"/>
       <c r="G60" s="23"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="16"/>
       <c r="C61" s="17"/>
       <c r="D61" s="19"/>
       <c r="F61" s="25"/>
       <c r="G61" s="25"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="16"/>
       <c r="C62" s="17"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="16"/>
       <c r="C63" s="17"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="16"/>
       <c r="C64" s="17"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="16"/>
       <c r="C65" s="17"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="16"/>
       <c r="C66" s="17"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="16"/>
       <c r="C67" s="17"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="16"/>
       <c r="C68" s="17"/>
       <c r="D68" s="19"/>
@@ -4130,18 +4126,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002F20A8-FC6B-4F91-AA45-9B7A2D0E93F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.77734375" style="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4174,24 +4170,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="20.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -4356,26 +4352,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184A2F54-6AB5-447D-BB96-473D1A8718C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.77734375" style="1"/>
-    <col min="5" max="5" width="10.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" style="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.77734375" style="1"/>
+    <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -4401,7 +4397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -4434,114 +4430,114 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4840609D-D972-4A8D-91B1-EAC7AF55899F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="143.6640625" customWidth="1"/>
-    <col min="3" max="21" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="143.7109375" customWidth="1"/>
+    <col min="3" max="21" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="35" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="B2" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35">
         <v>1</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35">
         <v>2</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35">
         <v>3</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="35">
         <v>4</v>
       </c>
       <c r="B6" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
       <c r="B7" s="35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36">
         <v>1</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36">
         <v>2</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36">
         <v>3</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36">
         <v>4</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36">
         <v>5</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -4549,7 +4545,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -4557,87 +4553,87 @@
         <v>7</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="10.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>9</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>11</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>12</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
         <v>13</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>14</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>15</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
         <v>17</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4647,21 +4643,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C2E580-63A4-4E67-B3C5-59DBA0E4B7A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="69.21875" customWidth="1"/>
-    <col min="3" max="21" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="69.28515625" customWidth="1"/>
+    <col min="3" max="21" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -4669,7 +4665,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>48</v>
       </c>
@@ -4677,20 +4673,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>91</v>
+      <c r="B4" s="39" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -4698,47 +4694,47 @@
         <v>52</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4748,12 +4744,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
